--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icos-Icosl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icos-Icosl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Icosl</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3099333333333333</v>
+        <v>0.03464866666666667</v>
       </c>
       <c r="H2">
-        <v>0.9298</v>
+        <v>0.103946</v>
       </c>
       <c r="I2">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="J2">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9626043333333335</v>
+        <v>0.9314806666666667</v>
       </c>
       <c r="N2">
-        <v>2.887813</v>
+        <v>2.794442</v>
       </c>
       <c r="O2">
-        <v>0.07904870764102041</v>
+        <v>0.06288211749152639</v>
       </c>
       <c r="P2">
-        <v>0.07904870764102043</v>
+        <v>0.06288211749152638</v>
       </c>
       <c r="Q2">
-        <v>0.2983431697111112</v>
+        <v>0.03227456312577778</v>
       </c>
       <c r="R2">
-        <v>2.6850885274</v>
+        <v>0.290471068132</v>
       </c>
       <c r="S2">
-        <v>0.03358909437441397</v>
+        <v>0.002372743846754893</v>
       </c>
       <c r="T2">
-        <v>0.03358909437441398</v>
+        <v>0.002372743846754892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3099333333333333</v>
+        <v>0.03464866666666667</v>
       </c>
       <c r="H3">
-        <v>0.9298</v>
+        <v>0.103946</v>
       </c>
       <c r="I3">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="J3">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.399281333333333</v>
       </c>
       <c r="N3">
-        <v>7.197843999999999</v>
+        <v>7.197844</v>
       </c>
       <c r="O3">
-        <v>0.1970280852678732</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="P3">
-        <v>0.1970280852678733</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="Q3">
-        <v>0.7436172612444444</v>
+        <v>0.08313189915822222</v>
       </c>
       <c r="R3">
-        <v>6.692555351199998</v>
+        <v>0.7481870924239999</v>
       </c>
       <c r="S3">
-        <v>0.08372046992250166</v>
+        <v>0.006111645924625246</v>
       </c>
       <c r="T3">
-        <v>0.08372046992250168</v>
+        <v>0.006111645924625245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3099333333333333</v>
+        <v>0.03464866666666667</v>
       </c>
       <c r="H4">
-        <v>0.9298</v>
+        <v>0.103946</v>
       </c>
       <c r="I4">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="J4">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.355348666666667</v>
+        <v>0.416663</v>
       </c>
       <c r="N4">
-        <v>4.066046</v>
+        <v>1.249989</v>
       </c>
       <c r="O4">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="P4">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="Q4">
-        <v>0.4200677300888889</v>
+        <v>0.01443681739933333</v>
       </c>
       <c r="R4">
-        <v>3.7806095708</v>
+        <v>0.129931356594</v>
       </c>
       <c r="S4">
-        <v>0.04729350647867726</v>
+        <v>0.001061358120247728</v>
       </c>
       <c r="T4">
-        <v>0.04729350647867727</v>
+        <v>0.001061358120247727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3099333333333333</v>
+        <v>0.03464866666666667</v>
       </c>
       <c r="H5">
-        <v>0.9298</v>
+        <v>0.103946</v>
       </c>
       <c r="I5">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="J5">
-        <v>0.4249164265524782</v>
+        <v>0.03773320526419342</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.460122666666666</v>
+        <v>11.0657</v>
       </c>
       <c r="N5">
-        <v>22.380368</v>
+        <v>33.1971</v>
       </c>
       <c r="O5">
-        <v>0.6126224817640368</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="P5">
-        <v>0.6126224817640369</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="Q5">
-        <v>2.312140685155555</v>
+        <v>0.3834117507333333</v>
       </c>
       <c r="R5">
-        <v>20.8092661664</v>
+        <v>3.4507057566</v>
       </c>
       <c r="S5">
-        <v>0.2603133557768852</v>
+        <v>0.02818745737256555</v>
       </c>
       <c r="T5">
-        <v>0.2603133557768853</v>
+        <v>0.02818745737256555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1764856666666667</v>
+        <v>0.3099333333333333</v>
       </c>
       <c r="H6">
-        <v>0.5294570000000001</v>
+        <v>0.9298</v>
       </c>
       <c r="I6">
-        <v>0.2419606113714728</v>
+        <v>0.3375246210017417</v>
       </c>
       <c r="J6">
-        <v>0.2419606113714729</v>
+        <v>0.3375246210017416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9626043333333335</v>
+        <v>0.9314806666666667</v>
       </c>
       <c r="N6">
-        <v>2.887813</v>
+        <v>2.794442</v>
       </c>
       <c r="O6">
-        <v>0.07904870764102041</v>
+        <v>0.06288211749152639</v>
       </c>
       <c r="P6">
-        <v>0.07904870764102043</v>
+        <v>0.06288211749152638</v>
       </c>
       <c r="Q6">
-        <v>0.1698858675045556</v>
+        <v>0.2886969079555556</v>
       </c>
       <c r="R6">
-        <v>1.528972807541001</v>
+        <v>2.5982721716</v>
       </c>
       <c r="S6">
-        <v>0.01912667362894612</v>
+        <v>0.02122426287411444</v>
       </c>
       <c r="T6">
-        <v>0.01912667362894612</v>
+        <v>0.02122426287411443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1764856666666667</v>
+        <v>0.3099333333333333</v>
       </c>
       <c r="H7">
-        <v>0.5294570000000001</v>
+        <v>0.9298</v>
       </c>
       <c r="I7">
-        <v>0.2419606113714728</v>
+        <v>0.3375246210017417</v>
       </c>
       <c r="J7">
-        <v>0.2419606113714729</v>
+        <v>0.3375246210017416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>2.399281333333333</v>
       </c>
       <c r="N7">
-        <v>7.197843999999999</v>
+        <v>7.197844</v>
       </c>
       <c r="O7">
-        <v>0.1970280852678732</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="P7">
-        <v>0.1970280852678733</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="Q7">
-        <v>0.4234387656342222</v>
+        <v>0.7436172612444444</v>
       </c>
       <c r="R7">
-        <v>3.810948890708</v>
+        <v>6.692555351199999</v>
       </c>
       <c r="S7">
-        <v>0.04767303596876529</v>
+        <v>0.0546688509487287</v>
       </c>
       <c r="T7">
-        <v>0.04767303596876531</v>
+        <v>0.05466885094872869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1764856666666667</v>
+        <v>0.3099333333333333</v>
       </c>
       <c r="H8">
-        <v>0.5294570000000001</v>
+        <v>0.9298</v>
       </c>
       <c r="I8">
-        <v>0.2419606113714728</v>
+        <v>0.3375246210017417</v>
       </c>
       <c r="J8">
-        <v>0.2419606113714729</v>
+        <v>0.3375246210017416</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.355348666666667</v>
+        <v>0.416663</v>
       </c>
       <c r="N8">
-        <v>4.066046</v>
+        <v>1.249989</v>
       </c>
       <c r="O8">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="P8">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="Q8">
-        <v>0.2391996130024445</v>
+        <v>0.1291377524666666</v>
       </c>
       <c r="R8">
-        <v>2.152796517022</v>
+        <v>1.1622397722</v>
       </c>
       <c r="S8">
-        <v>0.0269303915462261</v>
+        <v>0.009493879323940673</v>
       </c>
       <c r="T8">
-        <v>0.02693039154622611</v>
+        <v>0.009493879323940671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1764856666666667</v>
+        <v>0.3099333333333333</v>
       </c>
       <c r="H9">
-        <v>0.5294570000000001</v>
+        <v>0.9298</v>
       </c>
       <c r="I9">
-        <v>0.2419606113714728</v>
+        <v>0.3375246210017417</v>
       </c>
       <c r="J9">
-        <v>0.2419606113714729</v>
+        <v>0.3375246210017416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.460122666666666</v>
+        <v>11.0657</v>
       </c>
       <c r="N9">
-        <v>22.380368</v>
+        <v>33.1971</v>
       </c>
       <c r="O9">
-        <v>0.6126224817640368</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="P9">
-        <v>0.6126224817640369</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="Q9">
-        <v>1.316604722241778</v>
+        <v>3.429629286666667</v>
       </c>
       <c r="R9">
-        <v>11.849442500176</v>
+        <v>30.86666358</v>
       </c>
       <c r="S9">
-        <v>0.1482305102275353</v>
+        <v>0.2521376278549579</v>
       </c>
       <c r="T9">
-        <v>0.1482305102275354</v>
+        <v>0.2521376278549579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2429793333333333</v>
+        <v>0.02645</v>
       </c>
       <c r="H10">
-        <v>0.728938</v>
+        <v>0.07935</v>
       </c>
       <c r="I10">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="J10">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9626043333333335</v>
+        <v>0.9314806666666667</v>
       </c>
       <c r="N10">
-        <v>2.887813</v>
+        <v>2.794442</v>
       </c>
       <c r="O10">
-        <v>0.07904870764102041</v>
+        <v>0.06288211749152639</v>
       </c>
       <c r="P10">
-        <v>0.07904870764102043</v>
+        <v>0.06288211749152638</v>
       </c>
       <c r="Q10">
-        <v>0.2338929591771111</v>
+        <v>0.02463766363333334</v>
       </c>
       <c r="R10">
-        <v>2.105036632594</v>
+        <v>0.2217389727</v>
       </c>
       <c r="S10">
-        <v>0.02633293963766033</v>
+        <v>0.001811298407249926</v>
       </c>
       <c r="T10">
-        <v>0.02633293963766033</v>
+        <v>0.001811298407249925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2429793333333333</v>
+        <v>0.02645</v>
       </c>
       <c r="H11">
-        <v>0.728938</v>
+        <v>0.07935</v>
       </c>
       <c r="I11">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="J11">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>2.399281333333333</v>
       </c>
       <c r="N11">
-        <v>7.197843999999999</v>
+        <v>7.197844</v>
       </c>
       <c r="O11">
-        <v>0.1970280852678732</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="P11">
-        <v>0.1970280852678733</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="Q11">
-        <v>0.5829757788524443</v>
+        <v>0.06346099126666667</v>
       </c>
       <c r="R11">
-        <v>5.246782009671999</v>
+        <v>0.5711489214000001</v>
       </c>
       <c r="S11">
-        <v>0.06563457937660629</v>
+        <v>0.004665490775200713</v>
       </c>
       <c r="T11">
-        <v>0.06563457937660629</v>
+        <v>0.004665490775200712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2429793333333333</v>
+        <v>0.02645</v>
       </c>
       <c r="H12">
-        <v>0.728938</v>
+        <v>0.07935</v>
       </c>
       <c r="I12">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="J12">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.355348666666667</v>
+        <v>0.416663</v>
       </c>
       <c r="N12">
-        <v>4.066046</v>
+        <v>1.249989</v>
       </c>
       <c r="O12">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="P12">
-        <v>0.1113007253270695</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="Q12">
-        <v>0.3293217154608889</v>
+        <v>0.01102073635</v>
       </c>
       <c r="R12">
-        <v>2.963895439148</v>
+        <v>0.09918662714999998</v>
       </c>
       <c r="S12">
-        <v>0.0370768273021661</v>
+        <v>0.0008102165243651242</v>
       </c>
       <c r="T12">
-        <v>0.03707682730216611</v>
+        <v>0.0008102165243651241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2429793333333333</v>
+        <v>0.02645</v>
       </c>
       <c r="H13">
-        <v>0.728938</v>
+        <v>0.07935</v>
       </c>
       <c r="I13">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="J13">
-        <v>0.333122962076049</v>
+        <v>0.02880466624702969</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.460122666666666</v>
+        <v>11.0657</v>
       </c>
       <c r="N13">
-        <v>22.380368</v>
+        <v>33.1971</v>
       </c>
       <c r="O13">
-        <v>0.6126224817640368</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="P13">
-        <v>0.6126224817640369</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="Q13">
-        <v>1.812655632131555</v>
+        <v>0.292687765</v>
       </c>
       <c r="R13">
-        <v>16.313900689184</v>
+        <v>2.634189885</v>
       </c>
       <c r="S13">
-        <v>0.2040786157596162</v>
+        <v>0.02151766054021393</v>
       </c>
       <c r="T13">
-        <v>0.2040786157596162</v>
+        <v>0.02151766054021393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.547222</v>
+      </c>
+      <c r="H14">
+        <v>1.641666</v>
+      </c>
+      <c r="I14">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="J14">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9314806666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.794442</v>
+      </c>
+      <c r="O14">
+        <v>0.06288211749152639</v>
+      </c>
+      <c r="P14">
+        <v>0.06288211749152638</v>
+      </c>
+      <c r="Q14">
+        <v>0.5097267133746667</v>
+      </c>
+      <c r="R14">
+        <v>4.587540420372</v>
+      </c>
+      <c r="S14">
+        <v>0.03747381236340713</v>
+      </c>
+      <c r="T14">
+        <v>0.03747381236340712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.547222</v>
+      </c>
+      <c r="H15">
+        <v>1.641666</v>
+      </c>
+      <c r="I15">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="J15">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.399281333333333</v>
+      </c>
+      <c r="N15">
+        <v>7.197844</v>
+      </c>
+      <c r="O15">
+        <v>0.1619699646990985</v>
+      </c>
+      <c r="P15">
+        <v>0.1619699646990985</v>
+      </c>
+      <c r="Q15">
+        <v>1.312939529789333</v>
+      </c>
+      <c r="R15">
+        <v>11.816455768104</v>
+      </c>
+      <c r="S15">
+        <v>0.09652397705054382</v>
+      </c>
+      <c r="T15">
+        <v>0.09652397705054382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.547222</v>
+      </c>
+      <c r="H16">
+        <v>1.641666</v>
+      </c>
+      <c r="I16">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="J16">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.416663</v>
+      </c>
+      <c r="N16">
+        <v>1.249989</v>
+      </c>
+      <c r="O16">
+        <v>0.02812796084553394</v>
+      </c>
+      <c r="P16">
+        <v>0.02812796084553394</v>
+      </c>
+      <c r="Q16">
+        <v>0.228007160186</v>
+      </c>
+      <c r="R16">
+        <v>2.052064441674</v>
+      </c>
+      <c r="S16">
+        <v>0.01676250687698042</v>
+      </c>
+      <c r="T16">
+        <v>0.01676250687698041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.547222</v>
+      </c>
+      <c r="H17">
+        <v>1.641666</v>
+      </c>
+      <c r="I17">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="J17">
+        <v>0.5959375074870351</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.0657</v>
+      </c>
+      <c r="N17">
+        <v>33.1971</v>
+      </c>
+      <c r="O17">
+        <v>0.7470199569638412</v>
+      </c>
+      <c r="P17">
+        <v>0.7470199569638412</v>
+      </c>
+      <c r="Q17">
+        <v>6.0553944854</v>
+      </c>
+      <c r="R17">
+        <v>54.4985503686</v>
+      </c>
+      <c r="S17">
+        <v>0.4451772111961038</v>
+      </c>
+      <c r="T17">
+        <v>0.4451772111961038</v>
       </c>
     </row>
   </sheetData>
